--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E8" s="3">
         <v>29900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>67300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,8 +779,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +811,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +827,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +857,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +889,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +921,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +953,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E17" s="3">
         <v>50600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>175200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>75100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-107900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-52600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,8 +1044,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1037,40 +1071,46 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-35900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-107300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-22900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-21500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-52500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,66 +1138,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-107900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-108500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-108500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1362,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1426,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1385,40 +1455,46 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-108500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-108500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,26 +1621,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>575400</v>
+      </c>
+      <c r="E41" s="3">
         <v>258500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>273900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>270000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>226700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1651,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,26 +1683,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E43" s="3">
         <v>64900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1622,8 +1715,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,8 +1747,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1680,8 +1779,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1709,26 +1811,29 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E47" s="3">
         <v>36600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>60600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,26 +1843,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1767,8 +1875,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1781,8 +1892,8 @@
       <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1796,8 +1907,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,8 +1971,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1869,11 +1989,11 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1883,8 +2003,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,26 +2035,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>399900</v>
+        <v>831500</v>
       </c>
       <c r="E54" s="3">
         <v>399900</v>
       </c>
       <c r="F54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="G54" s="3">
         <v>414300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>311000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2067,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,26 +2097,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,8 +2127,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2025,26 +2159,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E59" s="3">
         <v>105400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>91600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>87300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,8 +2191,11 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2083,8 +2223,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,8 +2255,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +2287,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,26 +2383,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>262500</v>
+      </c>
+      <c r="E66" s="3">
         <v>141300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>124300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>116600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,8 +2415,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,13 +2493,16 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>480200</v>
@@ -2343,11 +2511,11 @@
         <v>480200</v>
       </c>
       <c r="G70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="H70" s="3">
         <v>355200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,26 +2557,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-286700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-255800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-234800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-134500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2589,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,26 +2685,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-221600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-204600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-182500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-122700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,8 +2717,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-108500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2834,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,28 +2844,31 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-78100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-40800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +3072,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2861,28 +3082,31 @@
         <v>-1200</v>
       </c>
       <c r="E91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3166,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>23500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,57 +3340,63 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>338200</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>300100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>119900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>119800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3155,33 +3404,39 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>316900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>167900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>155400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>85500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>102100</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E8" s="3">
         <v>17800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,8 +788,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +823,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,8 +840,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,8 +873,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,8 +908,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,8 +943,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,8 +978,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E17" s="3">
         <v>48300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>175200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>75100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-107900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-52600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1077,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1074,43 +1107,49 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-107300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-22900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-52500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1141,72 +1180,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-107900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-108500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-52900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-108500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-52900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,8 +1425,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,8 +1495,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1458,43 +1527,49 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-108500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-108500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,29 +1707,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>570800</v>
+      </c>
+      <c r="E41" s="3">
         <v>575400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>258500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>273900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>270000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>226700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1654,8 +1740,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1686,29 +1775,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E43" s="3">
         <v>82800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>64900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38900</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,8 +1810,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1750,8 +1845,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1782,8 +1880,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1814,29 +1915,32 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E47" s="3">
         <v>21700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>36800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>60600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1846,29 +1950,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +1985,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1895,8 +2005,8 @@
       <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1910,8 +2020,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,13 +2090,16 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -1992,11 +2111,11 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2006,8 +2125,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,29 +2160,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>828700</v>
+      </c>
+      <c r="E54" s="3">
         <v>831500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>399900</v>
       </c>
       <c r="F54" s="3">
         <v>399900</v>
       </c>
       <c r="G54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="H54" s="3">
         <v>414300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>311000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2070,8 +2195,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,29 +2227,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,8 +2260,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2162,29 +2295,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E59" s="3">
         <v>221800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>105400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>91600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>87300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2330,11 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2226,8 +2365,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2258,8 +2400,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2290,8 +2435,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,29 +2540,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>287700</v>
+      </c>
+      <c r="E66" s="3">
         <v>262500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>141300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>124300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>116600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2418,8 +2575,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2505,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>480200</v>
@@ -2514,11 +2681,11 @@
         <v>480200</v>
       </c>
       <c r="H70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="I70" s="3">
         <v>355200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2528,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,29 +2730,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-286700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-255800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-234800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-198300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-134500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,8 +2765,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,29 +2870,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E76" s="3">
         <v>569000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-221600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-204600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-182500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-122700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2720,8 +2905,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-108500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,40 +3032,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-78100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-40800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,40 +3292,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
         <v>-1200</v>
       </c>
       <c r="F91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,8 +3395,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3178,31 +3407,34 @@
         <v>13800</v>
       </c>
       <c r="E94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>23500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,63 +3585,69 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>338200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>300100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>119900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>119800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3407,36 +3655,42 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E102" s="3">
         <v>316900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>167900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>155400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>85500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>102100</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,106 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E8" s="3">
         <v>20500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,8 +798,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +836,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +928,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,8 +966,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E17" s="3">
         <v>53900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>175200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-33400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-107900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-52600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1111,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,46 +1144,52 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-107300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-52500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,78 +1223,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-107900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-108500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-52900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-108500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-52900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1489,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1565,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1530,46 +1600,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-108500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-108500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,32 +1794,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1174400</v>
+      </c>
+      <c r="E41" s="3">
         <v>570800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>575400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>258500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>273900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>270000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>226700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1743,8 +1830,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,32 +1868,35 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E43" s="3">
         <v>86100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>64900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,8 +1906,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1848,8 +1944,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1883,8 +1982,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1918,32 +2020,35 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E47" s="3">
         <v>6600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>36600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>60600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1953,32 +2058,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1988,8 +2096,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2008,8 +2119,8 @@
       <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2023,8 +2134,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,16 +2210,19 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2114,11 +2234,11 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2248,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,32 +2286,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1477500</v>
+      </c>
+      <c r="E54" s="3">
         <v>828700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>831500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>399900</v>
       </c>
       <c r="G54" s="3">
         <v>399900</v>
       </c>
       <c r="H54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="I54" s="3">
         <v>414300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>311000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2198,8 +2324,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,32 +2358,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2263,8 +2394,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2298,32 +2432,35 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E59" s="3">
         <v>240000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>221800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>105400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>91600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>87300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2470,11 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2368,8 +2508,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2546,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2438,8 +2584,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,32 +2698,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>333800</v>
+      </c>
+      <c r="E66" s="3">
         <v>287700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>262500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>141300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>124300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>116600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2736,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2675,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>480200</v>
@@ -2684,11 +2852,11 @@
         <v>480200</v>
       </c>
       <c r="I70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="J70" s="3">
         <v>355200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,32 +2904,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-369600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-320600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-286700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-255800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-234800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-198300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-134500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,8 +2942,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,32 +3056,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1143700</v>
+      </c>
+      <c r="E76" s="3">
         <v>541000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>569000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-221600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-204600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-182500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-122700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,8 +3094,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-108500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,43 +3231,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-78100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-40800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,43 +3513,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1200</v>
       </c>
       <c r="F91" s="3">
         <v>-1200</v>
       </c>
       <c r="G91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,43 +3625,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>13800</v>
+        <v>-2000</v>
       </c>
       <c r="E94" s="3">
         <v>13800</v>
       </c>
       <c r="F94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>23500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,69 +3831,75 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>646400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>338200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>300100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>119900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>119800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3658,39 +3907,45 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>603300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>316900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>167900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>155400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>85500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>102100</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,113 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E8" s="3">
         <v>23500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>67300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,8 +808,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +849,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,8 +989,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E17" s="3">
         <v>71600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>175200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-48100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-33400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-107900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-52600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1147,49 +1181,55 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-47200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-107300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-22900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-52500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,84 +1266,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-48100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-107900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-52600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-49000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-108500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-52900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-49000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-108500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-52900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1603,49 +1673,55 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-49000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-108500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-52900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-49000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-108500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-52900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,35 +1881,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1092400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1174400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>570800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>575400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>258500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>273900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>270000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>226700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1833,8 +1920,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,35 +1961,38 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E43" s="3">
         <v>98500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>86100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1909,8 +2002,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1947,8 +2043,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1985,8 +2084,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2023,35 +2125,38 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E47" s="3">
         <v>6500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>60600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2061,35 +2166,38 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E48" s="3">
         <v>6900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2207,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2122,8 +2233,8 @@
       <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2222,10 +2342,10 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2237,11 +2357,11 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,35 +2412,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1487300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1477500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>828700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>831500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>399900</v>
       </c>
       <c r="H54" s="3">
         <v>399900</v>
       </c>
       <c r="I54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="J54" s="3">
         <v>414300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>311000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,8 +2453,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,35 +2489,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2397,8 +2528,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2435,35 +2569,38 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>317200</v>
+      </c>
+      <c r="E59" s="3">
         <v>268800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>240000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>221800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>105400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>91600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>87300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,8 +2610,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2511,8 +2651,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2549,8 +2692,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,35 +2856,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>385700</v>
+      </c>
+      <c r="E66" s="3">
         <v>333800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>287700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>262500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>141300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>124300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>116600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2897,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2846,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>480200</v>
@@ -2855,11 +3023,11 @@
         <v>480200</v>
       </c>
       <c r="J70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="K70" s="3">
         <v>355200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,35 +3078,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-425200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-369600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-320600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-286700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-255800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-234800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-198300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-134500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2945,8 +3119,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,35 +3242,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1101600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1143700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>541000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>569000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-221600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-204600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-182500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-122700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3283,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-49000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-108500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-52900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,46 +3430,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-78100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,46 +3734,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1200</v>
       </c>
       <c r="G91" s="3">
         <v>-1200</v>
       </c>
       <c r="H91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3855,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E94" s="3">
-        <v>13800</v>
       </c>
       <c r="F94" s="3">
         <v>13800</v>
       </c>
       <c r="G94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>23500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,75 +4077,81 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>646400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>338200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>300100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>119900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>119800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -3910,42 +4159,48 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E102" s="3">
         <v>603300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>316900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>167900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>155400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>85500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>102100</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,120 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E8" s="3">
         <v>28200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,8 +818,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +862,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +968,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,8 +1012,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E17" s="3">
         <v>81100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>53900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>175200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-52900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-48100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-107900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-52600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1179,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,52 +1218,58 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-52100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-47200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-107300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-22900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-52500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,90 +1309,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-48100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-107900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-52600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-55600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-108500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-52900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-55600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-49000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-108500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-52900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1705,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1676,52 +1746,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-55600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-49000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-108500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-52900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-55600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-49000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-108500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-52900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,38 +1968,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>319400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1092400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1174400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>570800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>575400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>258500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>273900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>270000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>226700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1923,8 +2010,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,38 +2054,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E43" s="3">
         <v>108100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>98500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>86100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>64900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,8 +2098,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2046,8 +2142,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2087,8 +2186,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2128,38 +2230,41 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>805100</v>
+      </c>
+      <c r="E47" s="3">
         <v>71200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>21700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>36800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>60600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2169,38 +2274,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E48" s="3">
         <v>8800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2210,8 +2318,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2236,8 +2347,8 @@
       <c r="J49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>600</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,22 +2450,25 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2360,11 +2480,11 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2374,8 +2494,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,38 +2538,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1521700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1487300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1477500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>828700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>831500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>399900</v>
       </c>
       <c r="I54" s="3">
         <v>399900</v>
       </c>
       <c r="J54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="K54" s="3">
         <v>414300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>311000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2456,8 +2582,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,38 +2620,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,8 +2662,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2572,38 +2706,41 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>389400</v>
+      </c>
+      <c r="E59" s="3">
         <v>317200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>268800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>240000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>221800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>105400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>91600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>87300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,8 +2750,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2654,8 +2794,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,8 +2838,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,38 +3014,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>473700</v>
+      </c>
+      <c r="E66" s="3">
         <v>385700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>333800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>287700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>262500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>141300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>124300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>116600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2900,8 +3058,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3017,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>480200</v>
@@ -3026,11 +3194,11 @@
         <v>480200</v>
       </c>
       <c r="K70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="L70" s="3">
         <v>355200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,38 +3252,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-491600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-425200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-369600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-320600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-286700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-255800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-234800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-198300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3296,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,38 +3428,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1101600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1143700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>541000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>569000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-221600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-204600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-182500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-122700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3286,8 +3472,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-55600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-49000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-108500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-52900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3440,40 +3639,43 @@
         <v>800</v>
       </c>
       <c r="E83" s="3">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-78100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-40800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3744,40 +3965,43 @@
         <v>-2700</v>
       </c>
       <c r="E91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1200</v>
       </c>
       <c r="H91" s="3">
         <v>-1200</v>
       </c>
       <c r="I91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,49 +4085,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-737800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-67300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>13800</v>
       </c>
       <c r="G94" s="3">
         <v>13800</v>
       </c>
       <c r="H94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>23500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,81 +4323,87 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>646400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>338200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>300100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>119900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>119800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4162,45 +4411,51 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-773100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-82000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>603300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>316900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>167900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>155400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-30900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>85500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>102100</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,126 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E8" s="3">
         <v>35700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>29900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6700</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,8 +827,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,8 +874,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,8 +1034,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E17" s="3">
         <v>99900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>50600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>175200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-64200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-52900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-48100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-107900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-52600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,55 +1254,61 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-63400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-52100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-47200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-32800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-107300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-22900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-52500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,96 +1351,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-64200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-48100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-107900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-52600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-66400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-55600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-49000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-108500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-52900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23700</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-66400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-55600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-49000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-33900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-108500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-52900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23700</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1749,55 +1818,61 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-66400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-55600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-49000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-33900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-108500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-52900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-66400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-55600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-49000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-33900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-108500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-52900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,41 +2054,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>270600</v>
+      </c>
+      <c r="E41" s="3">
         <v>319400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1092400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1174400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>570800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>575400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>258500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>273900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>270000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>226700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2099,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,41 +2146,44 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E43" s="3">
         <v>129200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>108100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>98500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>86100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>82800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>64900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2193,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2145,8 +2240,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2189,8 +2287,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2233,41 +2334,44 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>801800</v>
+      </c>
+      <c r="E47" s="3">
         <v>805100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>71200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>36600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>36800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>60600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,41 +2381,44 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E48" s="3">
         <v>10800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2428,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2350,8 +2460,8 @@
       <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>600</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2365,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,25 +2569,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2483,11 +2602,11 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2497,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,41 +2663,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1510500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1521700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1487300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1477500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>828700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>831500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>399900</v>
       </c>
       <c r="J54" s="3">
         <v>399900</v>
       </c>
       <c r="K54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="L54" s="3">
         <v>414300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>311000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,41 +2750,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2665,8 +2795,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2709,41 +2842,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>421400</v>
+      </c>
+      <c r="E59" s="3">
         <v>389400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>317200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>268800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>240000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>221800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>105400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>91600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>87300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2889,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2797,8 +2936,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2841,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2885,8 +3030,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,41 +3171,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>522300</v>
+      </c>
+      <c r="E66" s="3">
         <v>473700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>385700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>333800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>287700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>262500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>141300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>124300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>116600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3188,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>480200</v>
@@ -3197,11 +3364,11 @@
         <v>480200</v>
       </c>
       <c r="L70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="M70" s="3">
         <v>355200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3211,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,41 +3425,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-561900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-491600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-425200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-369600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-320600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-286700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-255800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-234800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-198300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3299,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,41 +3613,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>988200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1048000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1101600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1143700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>541000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>569000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-221600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-204600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-182500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-122700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-66400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-55600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-49000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-33900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-108500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-52900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,52 +3827,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
         <v>800</v>
       </c>
       <c r="F83" s="3">
+        <v>800</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-35700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-78100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-40800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,52 +4175,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2700</v>
+        <v>-2000</v>
       </c>
       <c r="E91" s="3">
         <v>-2700</v>
       </c>
       <c r="F91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1200</v>
       </c>
       <c r="I91" s="3">
         <v>-1200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,52 +4314,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-737800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-67300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>13800</v>
       </c>
       <c r="H94" s="3">
         <v>13800</v>
       </c>
       <c r="I94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>23500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,87 +4568,93 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>646400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>338200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>300100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>119900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>119800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4414,48 +4662,54 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-773100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-82000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>603300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>316900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>167900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>155400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-30900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>85500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>102100</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,133 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E8" s="3">
         <v>41000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6700</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,8 +837,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +887,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +909,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,8 +957,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1007,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,8 +1057,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E17" s="3">
         <v>109400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>71600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>53900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>50600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>175200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>75100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-68400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-64200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-52900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-48100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-33400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-107900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-52600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,8 +1246,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,58 +1291,64 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-67200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-63400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-52100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-47200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-32800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-35900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-107300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-22900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-21500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-52500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,102 +1394,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-64200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-48100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-107900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-52600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-70300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-66400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-55600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-49000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-33900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-108500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-52900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-70300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-66400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-55600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-49000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-33900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-108500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-52900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,8 +1844,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1821,58 +1891,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-70300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-66400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-55600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-49000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-33900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-108500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-52900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-70300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-66400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-55600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-49000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-33900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-108500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-52900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,44 +2141,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>234800</v>
+      </c>
+      <c r="E41" s="3">
         <v>270600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>319400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1092400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1174400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>570800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>575400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>258500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>273900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>270000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>226700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2102,8 +2189,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,44 +2239,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>135600</v>
+      </c>
+      <c r="E43" s="3">
         <v>127000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>129200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>98500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>86100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>82800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>64900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2289,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2243,8 +2339,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2290,8 +2389,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2337,44 +2439,47 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>777900</v>
+      </c>
+      <c r="E47" s="3">
         <v>801800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>805100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>71200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>36600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>60600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,44 +2489,47 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,8 +2539,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2463,8 +2574,8 @@
       <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>600</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,28 +2689,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2605,11 +2725,11 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2739,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,44 +2789,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1495400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1510500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1521700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1487300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1477500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>828700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>831500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>399900</v>
       </c>
       <c r="K54" s="3">
         <v>399900</v>
       </c>
       <c r="L54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="M54" s="3">
         <v>414300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>311000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2839,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,44 +2881,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,8 +2929,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2845,44 +2979,47 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>464700</v>
+      </c>
+      <c r="E59" s="3">
         <v>421400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>389400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>317200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>268800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>240000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>221800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>105400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>87300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2892,8 +3029,11 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2939,8 +3079,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2986,8 +3129,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3033,8 +3179,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,44 +3329,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>582700</v>
+      </c>
+      <c r="E66" s="3">
         <v>522300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>473700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>385700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>333800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>287700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>262500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>141300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>116600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3379,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3358,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>480200</v>
@@ -3367,11 +3535,11 @@
         <v>480200</v>
       </c>
       <c r="M70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="N70" s="3">
         <v>355200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,44 +3599,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-636700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-561900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-491600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-425200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-369600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-320600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-286700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-255800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-234800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-198300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-134500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3649,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,44 +3799,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>912700</v>
+      </c>
+      <c r="E76" s="3">
         <v>988200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1048000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1101600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1143700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>541000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>569000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-221600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-204600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-182500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-122700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3849,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-70300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-66400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-55600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-49000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-33900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-108500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-52900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,55 +4026,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>800</v>
       </c>
       <c r="G83" s="3">
+        <v>800</v>
+      </c>
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-38200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-78100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-40800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,55 +4396,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-2700</v>
       </c>
       <c r="F91" s="3">
         <v>-2700</v>
       </c>
       <c r="G91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1200</v>
       </c>
       <c r="J91" s="3">
         <v>-1200</v>
       </c>
       <c r="K91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,55 +4544,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-737800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-67300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>13800</v>
       </c>
       <c r="I94" s="3">
         <v>13800</v>
       </c>
       <c r="J94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>23500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,8 +4814,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4580,84 +4826,87 @@
         <v>600</v>
       </c>
       <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>646400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>338200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>300100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>119900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>119800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -4665,51 +4914,57 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-773100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-82000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>603300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>316900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>167900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>155400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-30900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>85500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>102100</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,140 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="3">
         <v>44300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>28200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6700</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,8 +847,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +900,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +923,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +974,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1027,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,8 +1080,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E17" s="3">
         <v>116900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>109400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>99900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>71600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>53900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>175200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>75100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-72600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-68400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-64200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-52900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-48100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-107900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-23500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,8 +1280,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,61 +1328,67 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-71100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-67200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-63400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-52100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-47200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-32800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-35900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-107300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-22900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-21500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-52500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-23500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,108 +1437,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-72600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-68400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-64200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-48100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-107900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-23500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-74800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-70300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-66400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-55600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-49000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-108500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-74800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-66400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-55600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-108500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-23700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,8 +1914,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1894,61 +1964,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-74800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-70300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-66400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-55600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-108500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-74800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-70300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-66400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-55600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-108500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,47 +2228,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>199600</v>
+      </c>
+      <c r="E41" s="3">
         <v>234800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>270600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>319400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1092400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1174400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>570800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>575400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>258500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>273900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>226700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2279,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,47 +2332,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E43" s="3">
         <v>135600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>127000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>129200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>108100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>98500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>86100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>82800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>64900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>38900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,8 +2385,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2342,8 +2438,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2392,8 +2491,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2442,47 +2544,50 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E47" s="3">
         <v>777900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>801800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>805100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>71200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>21700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>60600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2597,50 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E48" s="3">
         <v>13000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,8 +2650,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2577,8 +2688,8 @@
       <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>600</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2592,8 +2703,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,31 +2809,34 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2728,11 +2848,11 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2742,8 +2862,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,47 +2915,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1460900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1495400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1510500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1521700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1487300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1477500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>828700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>831500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>399900</v>
       </c>
       <c r="L54" s="3">
         <v>399900</v>
       </c>
       <c r="M54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="N54" s="3">
         <v>414300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>311000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,8 +2968,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,47 +3012,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3063,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2982,47 +3116,50 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>483900</v>
+      </c>
+      <c r="E59" s="3">
         <v>464700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>421400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>389400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>317200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>268800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>240000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>221800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>105400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>87300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3169,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3082,8 +3222,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3132,8 +3275,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3182,8 +3328,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,47 +3487,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>611800</v>
+      </c>
+      <c r="E66" s="3">
         <v>582700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>522300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>473700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>385700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>333800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>287700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>262500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>141300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>124300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>116600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,8 +3540,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3529,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>480200</v>
@@ -3538,11 +3706,11 @@
         <v>480200</v>
       </c>
       <c r="N70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="O70" s="3">
         <v>355200</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,47 +3773,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-704600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-636700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-561900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-491600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-425200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-369600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-320600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-286700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-255800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-234800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-198300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-134500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3826,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,47 +3985,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>849100</v>
+      </c>
+      <c r="E76" s="3">
         <v>912700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>988200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1048000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1101600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1143700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>541000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>569000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-221600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-204600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-182500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-122700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3852,8 +4038,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-74800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-70300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-66400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-55600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-108500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,58 +4225,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>800</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
       </c>
       <c r="H83" s="3">
+        <v>800</v>
+      </c>
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-39500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-40300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-78100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-19000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,58 +4617,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2700</v>
       </c>
       <c r="G91" s="3">
         <v>-2700</v>
       </c>
       <c r="H91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1200</v>
       </c>
       <c r="K91" s="3">
         <v>-1200</v>
       </c>
       <c r="L91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,58 +4774,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E94" s="3">
         <v>4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-737800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-67300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>13800</v>
       </c>
       <c r="J94" s="3">
         <v>13800</v>
       </c>
       <c r="K94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>23500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,99 +5060,105 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>600</v>
       </c>
       <c r="F100" s="3">
+        <v>600</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>646400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>338200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>300100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>119900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>119800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -4917,54 +5166,60 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-49000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-773100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-82000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>603300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>316900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>167900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>155400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-30900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>85500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>102100</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,147 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E8" s="3">
         <v>50000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6700</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,8 +857,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,8 +913,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +937,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -977,8 +991,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,8 +1047,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1103,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,8 +1159,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>163100</v>
+      </c>
+      <c r="E17" s="3">
         <v>115000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>116900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>109400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>71600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>53900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>175200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>75100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>30200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-65000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-72600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-68400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-64200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-52900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-48100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-33400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-107900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-23000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-52600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-23500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,8 +1314,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1331,64 +1365,70 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-63400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-71100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-67200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-63400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-52100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-47200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-32800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-30100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-20300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-35900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-107300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-22900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-52500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-23500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,114 +1480,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-65000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-72600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-68400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-64200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-48100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-107900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-52600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-23500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-67900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-74800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-70300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-66400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-55600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-49000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-108500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-52900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-23700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-67900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-74800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-66400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-55600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-108500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-52900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-23700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1816,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,8 +1872,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,8 +1984,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1967,64 +2037,70 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-67900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-74800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-66400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-55600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-108500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-52900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-23700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-67900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-74800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-66400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-55600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-108500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-52900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-23700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,50 +2315,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E41" s="3">
         <v>199600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>234800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>270600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>319400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1092400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1174400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>570800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>575400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>258500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>273900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>270000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>226700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2282,8 +2369,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2335,50 +2425,53 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E43" s="3">
         <v>147600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>135600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>127000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>108100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>98500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>86100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>82800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>64900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>38900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,8 +2481,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2441,8 +2537,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2494,8 +2593,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2547,50 +2649,53 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>835900</v>
+      </c>
+      <c r="E47" s="3">
         <v>760000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>777900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>801800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>805100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>71200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>60600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2600,50 +2705,53 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E48" s="3">
         <v>13200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,13 +2761,16 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>46600</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
@@ -2691,8 +2802,8 @@
       <c r="N49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>600</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2706,8 +2817,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,34 +2929,37 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -2851,11 +2971,11 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +2985,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,50 +3041,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1712900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1460900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1495400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1510500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1521700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1487300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1477500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>828700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>831500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>399900</v>
       </c>
       <c r="M54" s="3">
         <v>399900</v>
       </c>
       <c r="N54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="O54" s="3">
         <v>414300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>311000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2971,8 +3097,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,50 +3143,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3066,8 +3197,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3119,50 +3253,53 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>577800</v>
+      </c>
+      <c r="E59" s="3">
         <v>483900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>464700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>421400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>389400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>317200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>268800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>240000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>221800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>105400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>91600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>87300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,8 +3309,11 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3225,8 +3365,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3278,8 +3421,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3331,8 +3477,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,50 +3645,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>806100</v>
+      </c>
+      <c r="E66" s="3">
         <v>611800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>582700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>522300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>473700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>385700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>333800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>287700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>262500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>141300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>124300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>116600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3543,8 +3701,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3700,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>480200</v>
@@ -3709,11 +3877,11 @@
         <v>480200</v>
       </c>
       <c r="O70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="P70" s="3">
         <v>355200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,50 +3947,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-796000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-704600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-636700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-561900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-491600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-425200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-369600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-320600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-286700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-255800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-234800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-198300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-134500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3829,8 +4003,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,50 +4171,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>906800</v>
+      </c>
+      <c r="E76" s="3">
         <v>849100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>912700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>988200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1048000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1101600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1143700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>541000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>569000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-221600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-204600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-182500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-122700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4041,8 +4227,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-67900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-74800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-66400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-55600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-108500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-52900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-23700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,61 +4424,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
       </c>
       <c r="I83" s="3">
+        <v>800</v>
+      </c>
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4758,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-39500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-40300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-35700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-78100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-40800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-19000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,61 +4838,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2700</v>
       </c>
       <c r="H91" s="3">
         <v>-2700</v>
       </c>
       <c r="I91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1200</v>
       </c>
       <c r="L91" s="3">
         <v>-1200</v>
       </c>
       <c r="M91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,61 +5004,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E94" s="3">
         <v>8900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-737800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-67300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>13800</v>
       </c>
       <c r="K94" s="3">
         <v>13800</v>
       </c>
       <c r="L94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>23500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,105 +5306,111 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>600</v>
       </c>
       <c r="F100" s="3">
         <v>600</v>
       </c>
       <c r="G100" s="3">
+        <v>600</v>
+      </c>
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>646400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>338200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>300100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>119900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>119800</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -5169,57 +5418,63 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-49000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-773100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-82000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>603300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>316900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>167900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>155400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>85500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>102100</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,153 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E8" s="3">
         <v>74000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6700</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,8 +866,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,8 +925,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -994,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,8 +1066,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,8 +1125,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1162,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1181,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E17" s="3">
         <v>163100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>115000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>116900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>109400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>81100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>71600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>175200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>75100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>30200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-89100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-65000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-72600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-68400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-64200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-52900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-48100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-33400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-30500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-107900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-52600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-23500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1315,8 +1347,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1368,67 +1401,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-85400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-63400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-71100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-67200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-63400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-52100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-47200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-32800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-20300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-35900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-107300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-21500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-52500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-23500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1483,120 +1522,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-89100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-72600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-68400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-64200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-48100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-107900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-52600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-23500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1651,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-91400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-67900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-74800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-70300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-66400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-55600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-49000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-36500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-108500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-52900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-23700</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-91400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-67900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-74800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-66400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-55600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-49000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-36500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-108500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-21600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-52900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-23700</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1819,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1875,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1931,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1987,8 +2053,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2040,67 +2109,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-91400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-67900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-74800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-70300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-66400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-55600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-49000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-36500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-108500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-21600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-52900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-23700</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2155,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-91400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-67900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-74800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-70300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-66400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-55600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-49000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-36500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-108500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-21600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-52900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-23700</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2294,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2316,53 +2401,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>282500</v>
+      </c>
+      <c r="E41" s="3">
         <v>222000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>199600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>234800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>270600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>319400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1092400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1174400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>570800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>575400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>258500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>273900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>270000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>226700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2458,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2428,53 +2517,56 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>179600</v>
+      </c>
+      <c r="E43" s="3">
         <v>187700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>147600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>135600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>127000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>108100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>98500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>86100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>82800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>64900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,8 +2576,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2540,8 +2635,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2596,8 +2694,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2652,53 +2753,56 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>750100</v>
+      </c>
+      <c r="E47" s="3">
         <v>835900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>760000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>777900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>801800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>805100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>71200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>36800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>60600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,53 +2812,56 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E48" s="3">
         <v>19100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,16 +2871,19 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E49" s="3">
         <v>46600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>600</v>
@@ -2805,8 +2915,8 @@
       <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>600</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2820,8 +2930,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2876,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2932,37 +3048,40 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -2974,11 +3093,11 @@
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,8 +3107,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3044,53 +3166,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1690700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1712900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1460900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1495400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1510500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1521700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1487300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1477500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>828700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>831500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>399900</v>
       </c>
       <c r="N54" s="3">
         <v>399900</v>
       </c>
       <c r="O54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="P54" s="3">
         <v>414300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>311000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3100,8 +3225,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3122,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3144,53 +3273,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3200,8 +3330,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3256,53 +3389,56 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>564500</v>
+      </c>
+      <c r="E59" s="3">
         <v>577800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>483900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>464700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>421400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>389400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>317200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>268800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>240000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>221800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>105400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>91600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>87300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3312,8 +3448,11 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3368,8 +3507,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3424,8 +3566,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3480,8 +3625,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3536,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3592,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3648,53 +3802,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>823900</v>
+      </c>
+      <c r="E66" s="3">
         <v>806100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>611800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>582700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>522300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>473700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>385700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>333800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>287700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>262500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>141300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>124300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>116600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3704,8 +3861,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3726,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3782,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3838,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3871,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>480200</v>
@@ -3880,11 +4047,11 @@
         <v>480200</v>
       </c>
       <c r="P70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="Q70" s="3">
         <v>355200</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -3894,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3950,53 +4120,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-859700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-796000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-704600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-636700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-561900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-491600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-425200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-369600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-320600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-286700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-255800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-234800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-198300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-134500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4006,8 +4179,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4062,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4118,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4174,53 +4356,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>866800</v>
+      </c>
+      <c r="E76" s="3">
         <v>906800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>849100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>912700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>988200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1048000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1101600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1143700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>541000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>569000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-221600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-204600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-182500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-122700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4230,8 +4415,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4286,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-91400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-67900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-74800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-70300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-66400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-55600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-49000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-36500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-108500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-21600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-52900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-23700</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4425,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>800</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
       </c>
       <c r="J83" s="3">
+        <v>800</v>
+      </c>
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4537,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4593,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4649,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4705,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4761,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-54700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-39500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-49900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-40300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-78100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-40800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-19000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4839,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2700</v>
       </c>
       <c r="I91" s="3">
         <v>-2700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1200</v>
       </c>
       <c r="M91" s="3">
         <v>-1200</v>
       </c>
       <c r="N91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4951,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5007,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E94" s="3">
         <v>80600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-737800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-67300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K94" s="3">
-        <v>13800</v>
       </c>
       <c r="L94" s="3">
         <v>13800</v>
       </c>
       <c r="M94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>23500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>6400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5085,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5141,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5197,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5253,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5309,111 +5551,117 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>600</v>
       </c>
       <c r="G100" s="3">
         <v>600</v>
       </c>
       <c r="H100" s="3">
+        <v>600</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>646400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>338200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>300100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
         <v>119900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>119800</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5421,60 +5669,66 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E102" s="3">
         <v>25400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-49000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-773100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-82000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>603300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>316900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>167900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>155400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-30900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>85500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>102100</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,160 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E8" s="3">
         <v>88400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>28200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>67300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6700</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,8 +876,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,8 +938,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1086,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1148,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E17" s="3">
         <v>156500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>163100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>115000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>116900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>109400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>99900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>81100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>71600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>50600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>175200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>32500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>75100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>30200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-68100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-89100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-65000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-72600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-68400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-64200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-52900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-48100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-33400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-36200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-107900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-23000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-52600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-23500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1381,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1404,70 +1438,76 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-62700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-85400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-63400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-71100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-67200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-63400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-52100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-47200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-32800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-30100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-35900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-107300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-22900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-21500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-52500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-23500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,126 +1565,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-89100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-65000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-72600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-68400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-64200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-48100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-36200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-107900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-23000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-21500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-52600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-23500</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-63700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-91400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-67900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-74800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-70300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-66400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-55600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-49000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-36500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-108500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-21600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-52900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-23700</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-63700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-91400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-67900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-74800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-70300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-66400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-55600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-49000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-36500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-108500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-23100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-21600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-52900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-23700</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,8 +2123,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2112,70 +2182,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-63700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-91400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-67900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-74800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-70300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-66400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-55600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-49000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-36500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-108500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-21600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-52900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-23700</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-63700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-91400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-67900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-74800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-70300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-66400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-55600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-49000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-36500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-108500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-21600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-52900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-23700</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,56 +2488,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>250100</v>
+      </c>
+      <c r="E41" s="3">
         <v>282500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>222000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>199600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>234800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>270600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>319400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1092400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1174400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>570800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>575400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>258500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>273900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>270000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>226700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2461,8 +2548,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,56 +2610,59 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E43" s="3">
         <v>179600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>187700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>147600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>135600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>127000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>108100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>98500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>86100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>82800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>64900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2672,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2638,8 +2734,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2697,8 +2796,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2756,56 +2858,59 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>737900</v>
+      </c>
+      <c r="E47" s="3">
         <v>750100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>835900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>760000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>777900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>801800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>805100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>71200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>36600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>36800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>60600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,56 +2920,59 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E48" s="3">
         <v>19600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,19 +2982,22 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E49" s="3">
         <v>51500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
@@ -2918,8 +3029,8 @@
       <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>600</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -2933,8 +3044,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,40 +3168,43 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -3096,11 +3216,11 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3110,8 +3230,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,56 +3292,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1641200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1690700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1712900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1460900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1495400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1510500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1521700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1487300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1477500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>828700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>831500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>399900</v>
       </c>
       <c r="O54" s="3">
         <v>399900</v>
       </c>
       <c r="P54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>414300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>311000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3228,8 +3354,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,56 +3404,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3333,8 +3464,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3392,56 +3526,59 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>565900</v>
+      </c>
+      <c r="E59" s="3">
         <v>564500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>577800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>483900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>464700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>421400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>389400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>317200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>268800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>240000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>221800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>105400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>91600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>87300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3451,8 +3588,11 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3510,8 +3650,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3569,8 +3712,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3628,8 +3774,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,56 +3960,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>819400</v>
+      </c>
+      <c r="E66" s="3">
         <v>823900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>806100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>611800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>582700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>522300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>473700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>385700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>333800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>287700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>262500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>141300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>124300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>116600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3864,8 +4022,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4041,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>480200</v>
@@ -4050,11 +4218,11 @@
         <v>480200</v>
       </c>
       <c r="Q70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="R70" s="3">
         <v>355200</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,56 +4294,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-925500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-859700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-796000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-704600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-636700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-561900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-491600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-425200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-369600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-320600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-286700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-255800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-234800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-198300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-134500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4356,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,56 +4542,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>821800</v>
+      </c>
+      <c r="E76" s="3">
         <v>866800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>906800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>849100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>912700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>988200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1048000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1101600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1143700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>541000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>569000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-221600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-204600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-182500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-122700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4418,8 +4604,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-63700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-91400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-67900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-74800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-70300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-66400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-55600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-49000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-36500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-108500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-21600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-52900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-23700</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4821,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
         <v>5400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>800</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
       </c>
       <c r="K83" s="3">
+        <v>800</v>
+      </c>
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
       </c>
       <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-54700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-39500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-49900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-40300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-35700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-17300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-20400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-40800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-19000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5279,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2700</v>
       </c>
       <c r="J91" s="3">
         <v>-2700</v>
       </c>
       <c r="K91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1200</v>
       </c>
       <c r="N91" s="3">
         <v>-1200</v>
       </c>
       <c r="O91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E94" s="3">
         <v>87500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>80600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-737800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-67300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>13800</v>
       </c>
       <c r="M94" s="3">
         <v>13800</v>
       </c>
       <c r="N94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>23500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>6400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,117 +5797,123 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>600</v>
       </c>
       <c r="H100" s="3">
         <v>600</v>
       </c>
       <c r="I100" s="3">
+        <v>600</v>
+      </c>
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>646400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>338200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3">
         <v>119900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>119800</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -5672,63 +5921,69 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E102" s="3">
         <v>61500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-49000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-773100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-82000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>603300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>316900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>167900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>155400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-30900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>85500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>102100</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,167 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E8" s="3">
         <v>95200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>88400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>67300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6700</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -879,8 +886,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,8 +951,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,8 +1106,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,8 +1171,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,8 +1236,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E17" s="3">
         <v>159900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>156500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>163100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>116900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>109400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>99900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>81100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>50600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>175200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>32500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>75100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>30200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-64700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-68100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-89100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-65000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-72600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-68400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-64200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-52900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-48100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-107900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-23000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-52600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-23500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,8 +1415,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1441,73 +1475,79 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-59600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-62700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-85400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-63400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-71100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-67200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-63400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-52100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-47200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-32800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-30100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-20300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-107300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-22900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-21500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-52500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-23500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,132 +1608,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-64700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-68100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-89100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-65000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-72600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-68400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-64200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-48100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-30500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-107900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-23000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-21500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-52600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-23500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-63700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-91400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-67900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-74800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-70300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-66400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-55600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-49000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-108500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-23100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-21600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-52900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-23700</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-65800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-63700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-91400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-67900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-74800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-70300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-66400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-55600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-49000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-30900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-108500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-23100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-21600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-52900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-23700</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,8 +2193,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2185,73 +2255,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-65800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-63700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-91400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-67900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-74800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-70300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-66400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-55600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-49000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-30900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-108500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-23100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-21600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-52900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-23700</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-65800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-63700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-91400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-67900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-74800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-70300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-66400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-55600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-49000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-30900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-108500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-23100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-21600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-52900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-23700</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,59 +2575,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188600</v>
+      </c>
+      <c r="E41" s="3">
         <v>250100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>282500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>222000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>199600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>234800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>270600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>319400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1092400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1174400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>570800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>575400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>258500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>273900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>270000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>226700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2551,8 +2638,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2613,59 +2703,62 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E43" s="3">
         <v>185000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>179600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>187700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>147600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>135600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>127000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>108100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>98500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>86100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>82800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>64900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>54100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>38900</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2675,8 +2768,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2737,8 +2833,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2799,8 +2898,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2861,59 +2963,62 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>748100</v>
+      </c>
+      <c r="E47" s="3">
         <v>737900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>750100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>835900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>760000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>777900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>801800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>805100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>71200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>21700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>36600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>36800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>60600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2923,59 +3028,62 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,22 +3093,25 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E49" s="3">
         <v>48800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>51500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>46600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>600</v>
@@ -3032,8 +3143,8 @@
       <c r="Q49" s="3">
         <v>600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>600</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3047,8 +3158,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,43 +3288,46 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3219,11 +3339,11 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3233,8 +3353,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,59 +3418,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1613100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1641200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1690700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1712900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1460900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1495400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1510500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1521700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1487300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1477500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>828700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>831500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>399900</v>
       </c>
       <c r="P54" s="3">
         <v>399900</v>
       </c>
       <c r="Q54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="R54" s="3">
         <v>414300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>311000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3357,8 +3483,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,59 +3535,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3467,8 +3598,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3529,59 +3663,62 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>578500</v>
+      </c>
+      <c r="E59" s="3">
         <v>565900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>564500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>577800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>483900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>464700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>421400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>389400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>317200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>268800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>240000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>221800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>105400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>91600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>87300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3591,8 +3728,11 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3653,8 +3793,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3715,8 +3858,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3777,8 +3923,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,59 +4118,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>842100</v>
+      </c>
+      <c r="E66" s="3">
         <v>819400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>823900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>806100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>611800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>582700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>522300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>473700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>385700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>333800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>287700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>262500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>141300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>124300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>116600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4025,8 +4183,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4212,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>480200</v>
@@ -4221,11 +4389,11 @@
         <v>480200</v>
       </c>
       <c r="R70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="S70" s="3">
         <v>355200</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,59 +4468,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-992700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-925500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-859700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-796000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-704600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-636700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-561900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-491600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-425200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-369600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-320600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-286700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-255800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-234800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-198300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-134500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4359,8 +4533,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,59 +4728,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E76" s="3">
         <v>821800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>866800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>906800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>849100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>912700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>988200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1048000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1101600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1143700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>541000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>569000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-221600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-204600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-182500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-122700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4607,8 +4793,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-65800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-63700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-91400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-67900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-74800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-70300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-66400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-55600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-49000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-30900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-108500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-23100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-21600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-52900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-23700</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,8 +5020,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4831,61 +5030,64 @@
         <v>5100</v>
       </c>
       <c r="E83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>800</v>
       </c>
       <c r="K83" s="3">
         <v>800</v>
       </c>
       <c r="L83" s="3">
+        <v>800</v>
+      </c>
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-54700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-49900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-35700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-78100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-17300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-20400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-40800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-19000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5500,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2700</v>
       </c>
       <c r="K91" s="3">
         <v>-2700</v>
       </c>
       <c r="L91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1200</v>
       </c>
       <c r="O91" s="3">
         <v>-1200</v>
       </c>
       <c r="P91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5693,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E94" s="3">
         <v>15300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>87500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>80600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-737800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M94" s="3">
-        <v>13800</v>
       </c>
       <c r="N94" s="3">
         <v>13800</v>
       </c>
       <c r="O94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>23500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>6400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5785,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,123 +6043,129 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>600</v>
       </c>
       <c r="I100" s="3">
         <v>600</v>
       </c>
       <c r="J100" s="3">
+        <v>600</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>646400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>338200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>300100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3">
         <v>119900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>119800</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
@@ -5924,66 +6173,72 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>61500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-35400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-35600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-49000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-773100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-82000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>603300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>316900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>167900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>155400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-30900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>85500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>102100</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>LMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,174 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E8" s="3">
         <v>104600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>95200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>88400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>50000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>67300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6700</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -889,8 +896,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,8 +964,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +992,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1058,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,8 +1126,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,8 +1194,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1239,8 +1262,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,138 +1287,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174100</v>
+      </c>
+      <c r="E17" s="3">
         <v>170500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>159900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>156500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>163100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>115000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>116900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>109400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>99900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>81100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>48300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>50600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>175200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>32500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>75100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>30200</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-65900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-64700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-68100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-89100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-65000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-72600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-68400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-64200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-52900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-48100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-33400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-30500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-36200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-107900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-23000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-21500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-52600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-23500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,8 +1449,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1478,76 +1512,82 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-60800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-59600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-62700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-85400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-63400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-71100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-67200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-63400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-52100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-47200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-32800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-30100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-35900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-107300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-22900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-21500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-52500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-23500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1611,138 +1651,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-65900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-64700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-68100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-89100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-65000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-72600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-68400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-64200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-52900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-48100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-36200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-107900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-23000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-21500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-52600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-23500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,138 +1855,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-67200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-63700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-91400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-67900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-74800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-70300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-66400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-55600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-49000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-36500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-108500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-23100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-21600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-52900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-23700</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-67200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-65800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-63700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-91400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-67900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-74800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-66400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-55600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-49000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-33900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-30900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-36500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-108500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-23100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-21600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-52900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-23700</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2059,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2066,8 +2127,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2195,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,8 +2263,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2258,76 +2328,82 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-67200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-65800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-63700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-91400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-67900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-74800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-66400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-55600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-49000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-30900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-36500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-108500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-23100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-21600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-52900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-23700</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,143 +2467,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-67200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-65800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-63700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-91400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-67900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-74800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-66400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-55600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-49000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-30900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-36500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-108500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-23100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-21600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-52900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-23700</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2636,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,62 +2662,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>231700</v>
+      </c>
+      <c r="E41" s="3">
         <v>188600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>250100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>282500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>222000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>199600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>234800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>270600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>319400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1092400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1174400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>570800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>575400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>258500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>273900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>270000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>226700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2641,8 +2728,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2706,62 +2796,65 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>223200</v>
+      </c>
+      <c r="E43" s="3">
         <v>197800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>185000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>179600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>187700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>147600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>135600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>127000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>108100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>98500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>82800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>64900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>57200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>38900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2771,8 +2864,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2836,8 +2932,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2901,8 +3000,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2966,62 +3068,65 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>706800</v>
+      </c>
+      <c r="E47" s="3">
         <v>748100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>737900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>750100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>835900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>760000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>777900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>801800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>805100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>71200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>36600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>36800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>60600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,62 +3136,65 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E48" s="3">
         <v>19000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,25 +3204,28 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E49" s="3">
         <v>46500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>51500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -3146,8 +3257,8 @@
       <c r="R49" s="3">
         <v>600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
+      <c r="S49" s="3">
+        <v>600</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
@@ -3161,8 +3272,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3340,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,46 +3408,49 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -3342,11 +3462,11 @@
         <v>300</v>
       </c>
       <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3476,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,62 +3544,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1647600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1613100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1641200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1690700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1712900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1460900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1495400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1510500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1521700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1487300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1477500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>828700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>831500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>399900</v>
       </c>
       <c r="Q54" s="3">
         <v>399900</v>
       </c>
       <c r="R54" s="3">
+        <v>399900</v>
+      </c>
+      <c r="S54" s="3">
         <v>414300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>311000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3486,8 +3612,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3640,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,62 +3666,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3601,8 +3732,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3666,62 +3800,65 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>650900</v>
+      </c>
+      <c r="E59" s="3">
         <v>578500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>565900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>564500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>577800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>483900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>464700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>421400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>389400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>317200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>268800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>240000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>221800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>105400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>91600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>87300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3731,8 +3868,11 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3796,13 +3936,16 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3861,8 +4004,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3926,8 +4072,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4140,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4208,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,62 +4276,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>920700</v>
+      </c>
+      <c r="E66" s="3">
         <v>842100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>819400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>823900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>806100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>611800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>582700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>522300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>473700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>385700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>333800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>287700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>262500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>141300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>124300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>116600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4186,8 +4344,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4372,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4438,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4506,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4383,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>480200</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>480200</v>
@@ -4392,11 +4560,11 @@
         <v>480200</v>
       </c>
       <c r="S70" s="3">
+        <v>480200</v>
+      </c>
+      <c r="T70" s="3">
         <v>355200</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4406,8 +4574,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,62 +4642,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1054200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-992700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-925500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-859700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-796000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-704600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-636700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-561900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-491600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-425200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-369600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-320600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-286700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-255800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-234800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-198300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-134500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4536,8 +4710,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4778,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +4846,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,62 +4914,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>726900</v>
+      </c>
+      <c r="E76" s="3">
         <v>771000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>821800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>866800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>906800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>849100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>912700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>988200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1048000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1101600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1143700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>541000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>569000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-221600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-204600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-182500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-122700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4796,8 +4982,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,143 +5050,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-67200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-65800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-63700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-91400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-67900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-74800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-66400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-55600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-49000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-30900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-36500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-108500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-23100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-21600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-52900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-23700</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,73 +5219,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E83" s="3">
         <v>5100</v>
       </c>
       <c r="F83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>800</v>
       </c>
       <c r="L83" s="3">
         <v>800</v>
       </c>
       <c r="M83" s="3">
+        <v>800</v>
+      </c>
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>400</v>
       </c>
       <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5353,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5421,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5489,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5557,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,73 +5625,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-50300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-54700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-40200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-39500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-49900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-40300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-35700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-19400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-78100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-17300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-20400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-40800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-19000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,73 +5721,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2700</v>
       </c>
       <c r="L91" s="3">
         <v>-2700</v>
       </c>
       <c r="M91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1200</v>
       </c>
       <c r="P91" s="3">
         <v>-1200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +5855,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,73 +5923,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>87500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>80600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-737800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-67300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N94" s="3">
-        <v>13800</v>
       </c>
       <c r="O94" s="3">
         <v>13800</v>
       </c>
       <c r="P94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>23500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>6400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,8 +6019,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5851,8 +6085,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6153,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6221,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,129 +6289,135 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>600</v>
       </c>
       <c r="J100" s="3">
         <v>600</v>
       </c>
       <c r="K100" s="3">
+        <v>600</v>
+      </c>
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>646400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>338200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
         <v>300100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3">
         <v>119900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>119800</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
@@ -6176,69 +6425,75 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>61500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-35400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-35600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-49000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-773100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-82000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>603300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>316900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>167900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>155400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-30900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>85500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>102100</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
